--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N2">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q2">
-        <v>0.08021549356166667</v>
+        <v>0.15612460266</v>
       </c>
       <c r="R2">
-        <v>0.721939442055</v>
+        <v>1.40512142394</v>
       </c>
       <c r="S2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="T2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O3">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P3">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q3">
         <v>0.1395205995083333</v>
@@ -641,10 +641,10 @@
         <v>1.255685395575</v>
       </c>
       <c r="S3">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="T3">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N4">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q4">
-        <v>0.3457375025216667</v>
+        <v>0.3467924768244444</v>
       </c>
       <c r="R4">
-        <v>3.111637522695</v>
+        <v>3.12113229142</v>
       </c>
       <c r="S4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="T4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N5">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O5">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P5">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q5">
-        <v>0.05461958684</v>
+        <v>0.03244066597055555</v>
       </c>
       <c r="R5">
-        <v>0.49157628156</v>
+        <v>0.291965993735</v>
       </c>
       <c r="S5">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="T5">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N6">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q6">
-        <v>0.2664156635688889</v>
+        <v>0.3155140425305556</v>
       </c>
       <c r="R6">
-        <v>2.39774097212</v>
+        <v>2.839626382775</v>
       </c>
       <c r="S6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="T6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N7">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q7">
-        <v>0.4724831181055556</v>
+        <v>0.3224203186533333</v>
       </c>
       <c r="R7">
-        <v>4.25234806295</v>
+        <v>2.90178286788</v>
       </c>
       <c r="S7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="T7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
     </row>
   </sheetData>
